--- a/raw_data/20200818_saline/20200818_Sensor3_Test_45.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_45.xlsx
@@ -1,795 +1,1211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9780257-9403-4D57-869F-6C3423BE4734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>40159.156773</v>
+        <v>40159.156773000002</v>
       </c>
       <c r="B2" s="1">
-        <v>11.155321</v>
+        <v>11.155321000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1153.160000</v>
+        <v>1153.1600000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-237.561000</v>
+        <v>-237.56100000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>40169.211667</v>
+        <v>40169.211667000003</v>
       </c>
       <c r="G2" s="1">
-        <v>11.158114</v>
+        <v>11.158113999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1171.890000</v>
+        <v>1171.8900000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-201.925000</v>
+        <v>-201.92500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>40179.676726</v>
+        <v>40179.676725999998</v>
       </c>
       <c r="L2" s="1">
         <v>11.161021</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="N2" s="1">
-        <v>-144.666000</v>
+        <v>-144.666</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>40190.580774</v>
+        <v>40190.580774000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.164050</v>
+        <v>11.16405</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-124.924000</v>
+        <v>-124.92400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>40201.120797</v>
+        <v>40201.120797000003</v>
       </c>
       <c r="V2" s="1">
         <v>11.166978</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.092000</v>
+        <v>-106.092</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>40211.883450</v>
+        <v>40211.883450000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.169968</v>
+        <v>11.169968000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1225.850000</v>
+        <v>1225.8499999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.949500</v>
+        <v>-89.9495</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>40222.515724</v>
+        <v>40222.515723999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.172921</v>
+        <v>11.172921000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.988400</v>
+        <v>-85.988399999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>40232.972847</v>
+        <v>40232.972846999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.175826</v>
+        <v>11.175826000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.644000</v>
+        <v>-89.644000000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>40244.197809</v>
+        <v>40244.197808999998</v>
       </c>
       <c r="AP2" s="1">
         <v>11.178944</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1246.750000</v>
+        <v>1246.75</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.792000</v>
+        <v>-101.792</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>40255.172785</v>
+        <v>40255.172785000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.181992</v>
+        <v>11.181991999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1256.760000</v>
+        <v>1256.76</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.369000</v>
+        <v>-121.369</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>40266.366002</v>
+        <v>40266.366002000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11.185102</v>
+        <v>11.185102000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.080000</v>
+        <v>-139.08000000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>40277.723396</v>
+        <v>40277.723396000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.188256</v>
+        <v>11.188256000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.347000</v>
+        <v>-222.34700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>40288.759073</v>
+        <v>40288.759073000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.191322</v>
       </c>
       <c r="BK2" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.549000</v>
+        <v>-361.54899999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>40300.280453</v>
+        <v>40300.280452999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.194522</v>
+        <v>11.194521999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1489.420000</v>
+        <v>1489.42</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-588.896000</v>
+        <v>-588.89599999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>40311.007134</v>
+        <v>40311.007133999999</v>
       </c>
       <c r="BT2" s="1">
         <v>11.197502</v>
       </c>
       <c r="BU2" s="1">
-        <v>1621.940000</v>
+        <v>1621.94</v>
       </c>
       <c r="BV2" s="1">
-        <v>-845.995000</v>
+        <v>-845.995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>40321.374315</v>
+        <v>40321.374315000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.200382</v>
+        <v>11.200381999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1776.140000</v>
+        <v>1776.14</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1126.580000</v>
+        <v>-1126.58</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>40332.387492</v>
+        <v>40332.387492000002</v>
       </c>
       <c r="CD2" s="1">
         <v>11.203441</v>
       </c>
       <c r="CE2" s="1">
-        <v>2200.530000</v>
+        <v>2200.5300000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1807.700000</v>
+        <v>-1807.7</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>40159.576882</v>
+        <v>40159.576882000001</v>
       </c>
       <c r="B3" s="1">
         <v>11.155438</v>
       </c>
       <c r="C3" s="1">
-        <v>1152.920000</v>
+        <v>1152.92</v>
       </c>
       <c r="D3" s="1">
-        <v>-237.683000</v>
+        <v>-237.68299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>40169.626787</v>
+        <v>40169.626787000001</v>
       </c>
       <c r="G3" s="1">
-        <v>11.158230</v>
+        <v>11.15823</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.300000</v>
+        <v>1172.3</v>
       </c>
       <c r="I3" s="1">
-        <v>-202.033000</v>
+        <v>-202.03299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>40180.093896</v>
+        <v>40180.093895999998</v>
       </c>
       <c r="L3" s="1">
         <v>11.161137</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.650000</v>
+        <v>1199.6500000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-144.702000</v>
+        <v>-144.702</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>40190.929989</v>
+        <v>40190.929988999997</v>
       </c>
       <c r="Q3" s="1">
         <v>11.164147</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="S3" s="1">
-        <v>-124.921000</v>
+        <v>-124.92100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>40201.498216</v>
@@ -798,73 +1214,73 @@
         <v>11.167083</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.820000</v>
+        <v>1216.82</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.033000</v>
+        <v>-106.033</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>40212.271817</v>
+        <v>40212.271817000001</v>
       </c>
       <c r="AA3" s="1">
         <v>11.170076</v>
       </c>
       <c r="AB3" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.957400</v>
+        <v>-89.957400000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>40223.238893</v>
+        <v>40223.238893000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.173122</v>
+        <v>11.173121999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1231.060000</v>
+        <v>1231.06</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.949100</v>
+        <v>-85.949100000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>40233.706460</v>
+        <v>40233.706460000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.176030</v>
+        <v>11.176030000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1238.700000</v>
+        <v>1238.7</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.674500</v>
+        <v>-89.674499999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>40244.600062</v>
+        <v>40244.600061999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.179056</v>
+        <v>11.179055999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1246.770000</v>
+        <v>1246.77</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.769000</v>
+        <v>-101.76900000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>40255.565616</v>
@@ -873,73 +1289,73 @@
         <v>11.182102</v>
       </c>
       <c r="AV3" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.378000</v>
+        <v>-121.378</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>40266.752913</v>
+        <v>40266.752912999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.185209</v>
       </c>
       <c r="BA3" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.119000</v>
+        <v>-139.119</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>40278.414818</v>
+        <v>40278.414817999997</v>
       </c>
       <c r="BE3" s="1">
         <v>11.188449</v>
       </c>
       <c r="BF3" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.405000</v>
+        <v>-222.405</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>40289.466675</v>
+        <v>40289.466675000003</v>
       </c>
       <c r="BJ3" s="1">
         <v>11.191519</v>
       </c>
       <c r="BK3" s="1">
-        <v>1374.630000</v>
+        <v>1374.63</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.551000</v>
+        <v>-361.55099999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>40300.793349</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.194665</v>
+        <v>11.194665000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1489.430000</v>
+        <v>1489.43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-588.873000</v>
+        <v>-588.87300000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>40311.162224</v>
@@ -948,560 +1364,560 @@
         <v>11.197545</v>
       </c>
       <c r="BU3" s="1">
-        <v>1621.780000</v>
+        <v>1621.78</v>
       </c>
       <c r="BV3" s="1">
-        <v>-845.971000</v>
+        <v>-845.971</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>40321.836586</v>
+        <v>40321.836585999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>11.200510</v>
+        <v>11.20051</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1776.080000</v>
+        <v>1776.08</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1126.630000</v>
+        <v>-1126.6300000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>40333.012939</v>
       </c>
       <c r="CD3" s="1">
-        <v>11.203615</v>
+        <v>11.203614999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2200.920000</v>
+        <v>2200.92</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1809.990000</v>
+        <v>-1809.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>40159.867008</v>
+        <v>40159.867008000001</v>
       </c>
       <c r="B4" s="1">
         <v>11.155519</v>
       </c>
       <c r="C4" s="1">
-        <v>1153.380000</v>
+        <v>1153.3800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-237.286000</v>
+        <v>-237.286</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>40169.971505</v>
+        <v>40169.971505000001</v>
       </c>
       <c r="G4" s="1">
         <v>11.158325</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.920000</v>
+        <v>1171.92</v>
       </c>
       <c r="I4" s="1">
-        <v>-202.499000</v>
+        <v>-202.499</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>40180.437620</v>
+        <v>40180.437619999997</v>
       </c>
       <c r="L4" s="1">
-        <v>11.161233</v>
+        <v>11.161232999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1199.760000</v>
+        <v>1199.76</v>
       </c>
       <c r="N4" s="1">
-        <v>-144.384000</v>
+        <v>-144.38399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>40191.281652</v>
+        <v>40191.281651999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.164245</v>
+        <v>11.164244999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.420000</v>
+        <v>1208.42</v>
       </c>
       <c r="S4" s="1">
-        <v>-124.983000</v>
+        <v>-124.983</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>40202.497194</v>
+        <v>40202.497194000003</v>
       </c>
       <c r="V4" s="1">
-        <v>11.167360</v>
+        <v>11.16736</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.139000</v>
+        <v>-106.139</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>40212.972169</v>
+        <v>40212.972169000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.170270</v>
+        <v>11.17027</v>
       </c>
       <c r="AB4" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.994000</v>
+        <v>-89.994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>40223.584074</v>
+        <v>40223.584073999999</v>
       </c>
       <c r="AF4" s="1">
         <v>11.173218</v>
       </c>
       <c r="AG4" s="1">
-        <v>1231.120000</v>
+        <v>1231.1199999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.948600</v>
+        <v>-85.948599999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>40234.055614</v>
+        <v>40234.055613999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>11.176127</v>
+        <v>11.176126999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.675600</v>
+        <v>-89.675600000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>40244.960654</v>
+        <v>40244.960654000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.179156</v>
+        <v>11.179156000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1246.760000</v>
+        <v>1246.76</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.794000</v>
+        <v>-101.794</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>40255.931663</v>
+        <v>40255.931663000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>11.182203</v>
+        <v>11.182202999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>40267.425457</v>
+        <v>40267.425456999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.185396</v>
+        <v>11.185396000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.118000</v>
+        <v>-139.11799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>40278.825043</v>
+        <v>40278.825042999997</v>
       </c>
       <c r="BE4" s="1">
         <v>11.188563</v>
       </c>
       <c r="BF4" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.394000</v>
+        <v>-222.39400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>40289.946804</v>
+        <v>40289.946803999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.191652</v>
+        <v>11.191651999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.550000</v>
+        <v>-361.55</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>40301.209460</v>
+        <v>40301.209459999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.194780</v>
+        <v>11.19478</v>
       </c>
       <c r="BP4" s="1">
-        <v>1489.400000</v>
+        <v>1489.4</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-588.903000</v>
+        <v>-588.90300000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>40311.574358</v>
+        <v>40311.574357999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>11.197660</v>
+        <v>11.197660000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1621.920000</v>
+        <v>1621.92</v>
       </c>
       <c r="BV4" s="1">
-        <v>-845.950000</v>
+        <v>-845.95</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>40322.284009</v>
+        <v>40322.284009000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.200634</v>
+        <v>11.200634000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1776.090000</v>
+        <v>1776.09</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1126.680000</v>
+        <v>-1126.68</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>40333.521833</v>
+        <v>40333.521832999999</v>
       </c>
       <c r="CD4" s="1">
         <v>11.203756</v>
       </c>
       <c r="CE4" s="1">
-        <v>2201.270000</v>
+        <v>2201.27</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1810.270000</v>
+        <v>-1810.27</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>40160.208750</v>
+        <v>40160.208749999998</v>
       </c>
       <c r="B5" s="1">
         <v>11.155614</v>
       </c>
       <c r="C5" s="1">
-        <v>1153.540000</v>
+        <v>1153.54</v>
       </c>
       <c r="D5" s="1">
-        <v>-237.298000</v>
+        <v>-237.298</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>40170.317750</v>
+        <v>40170.317750000002</v>
       </c>
       <c r="G5" s="1">
         <v>11.158422</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.710000</v>
+        <v>1172.71</v>
       </c>
       <c r="I5" s="1">
-        <v>-201.202000</v>
+        <v>-201.202</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>40180.783796</v>
+        <v>40180.783796000003</v>
       </c>
       <c r="L5" s="1">
         <v>11.161329</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.970000</v>
+        <v>1199.97</v>
       </c>
       <c r="N5" s="1">
-        <v>-144.339000</v>
+        <v>-144.339</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>40191.975029</v>
+        <v>40191.975029000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>11.164438</v>
+        <v>11.164438000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.370000</v>
+        <v>1208.3699999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-124.942000</v>
+        <v>-124.94199999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>40202.862710</v>
+        <v>40202.862710000001</v>
       </c>
       <c r="V5" s="1">
         <v>11.167462</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.910000</v>
+        <v>1216.9100000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.016000</v>
+        <v>-106.01600000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>40213.318376</v>
+        <v>40213.318376000003</v>
       </c>
       <c r="AA5" s="1">
         <v>11.170366</v>
       </c>
       <c r="AB5" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.990200</v>
+        <v>-89.990200000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>40223.923834</v>
+        <v>40223.923834000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.173312</v>
+        <v>11.173311999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.991300</v>
+        <v>-85.991299999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>40234.404829</v>
+        <v>40234.404828999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>11.176224</v>
+        <v>11.176223999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.682500</v>
+        <v>-89.682500000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>40245.644637</v>
+        <v>40245.644636999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.179346</v>
+        <v>11.179346000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1246.760000</v>
+        <v>1246.76</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.820000</v>
+        <v>-101.82</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>40256.619119</v>
+        <v>40256.619119000003</v>
       </c>
       <c r="AU5" s="1">
         <v>11.182394</v>
       </c>
       <c r="AV5" s="1">
-        <v>1256.760000</v>
+        <v>1256.76</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.354000</v>
+        <v>-121.354</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>40267.861440</v>
+        <v>40267.861440000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11.185517</v>
+        <v>11.185517000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1265.140000</v>
+        <v>1265.1400000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.104000</v>
+        <v>-139.10400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>40279.184114</v>
+        <v>40279.184114000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.188662</v>
+        <v>11.188662000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1305.070000</v>
+        <v>1305.07</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.387000</v>
+        <v>-222.387</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>40290.324296</v>
+        <v>40290.324295999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.191757</v>
+        <v>11.191757000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1374.630000</v>
+        <v>1374.63</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.527000</v>
+        <v>-361.52699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>40301.607911</v>
+        <v>40301.607910999999</v>
       </c>
       <c r="BO5" s="1">
         <v>11.194891</v>
       </c>
       <c r="BP5" s="1">
-        <v>1489.420000</v>
+        <v>1489.42</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-588.904000</v>
+        <v>-588.904</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>40312.002903</v>
+        <v>40312.002903000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.197779</v>
+        <v>11.197779000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1621.910000</v>
+        <v>1621.91</v>
       </c>
       <c r="BV5" s="1">
-        <v>-845.920000</v>
+        <v>-845.92</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>40322.718969</v>
+        <v>40322.718969000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>11.200755</v>
+        <v>11.200754999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1776.190000</v>
+        <v>1776.19</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1126.720000</v>
+        <v>-1126.72</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>40334.037679</v>
+        <v>40334.037679000001</v>
       </c>
       <c r="CD5" s="1">
         <v>11.203899</v>
       </c>
       <c r="CE5" s="1">
-        <v>2201.660000</v>
+        <v>2201.66</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1808.380000</v>
+        <v>-1808.38</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>40160.551518</v>
       </c>
@@ -1509,707 +1925,707 @@
         <v>11.155709</v>
       </c>
       <c r="C6" s="1">
-        <v>1153.390000</v>
+        <v>1153.3900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-237.503000</v>
+        <v>-237.50299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>40171.003680</v>
+        <v>40171.003680000002</v>
       </c>
       <c r="G6" s="1">
         <v>11.158612</v>
       </c>
       <c r="H6" s="1">
-        <v>1172.370000</v>
+        <v>1172.3699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-202.005000</v>
+        <v>-202.005</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>40181.757442</v>
+        <v>40181.757442000002</v>
       </c>
       <c r="L6" s="1">
-        <v>11.161599</v>
+        <v>11.161599000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1199.580000</v>
+        <v>1199.58</v>
       </c>
       <c r="N6" s="1">
-        <v>-144.374000</v>
+        <v>-144.374</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>40192.321236</v>
+        <v>40192.321236000003</v>
       </c>
       <c r="Q6" s="1">
         <v>11.164534</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-125.010000</v>
+        <v>-125.01</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>40203.205478</v>
+        <v>40203.205478000003</v>
       </c>
       <c r="V6" s="1">
         <v>11.167557</v>
       </c>
       <c r="W6" s="1">
-        <v>1216.900000</v>
+        <v>1216.9000000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.148000</v>
+        <v>-106.148</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>40213.664584</v>
+        <v>40213.664583999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>11.170462</v>
+        <v>11.170462000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1225.730000</v>
+        <v>1225.73</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.828400</v>
+        <v>-89.828400000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>40224.580547</v>
+        <v>40224.580546999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.173495</v>
+        <v>11.173495000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1231.110000</v>
+        <v>1231.1099999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.948900</v>
+        <v>-85.948899999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>40235.069437</v>
+        <v>40235.069436999998</v>
       </c>
       <c r="AK6" s="1">
         <v>11.176408</v>
       </c>
       <c r="AL6" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.666500</v>
+        <v>-89.666499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>40246.039948</v>
+        <v>40246.039947999998</v>
       </c>
       <c r="AP6" s="1">
         <v>11.179456</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1246.760000</v>
+        <v>1246.76</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.830000</v>
+        <v>-101.83</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>40257.060559</v>
+        <v>40257.060558999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.182517</v>
+        <v>11.182517000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1256.770000</v>
+        <v>1256.77</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>40268.219086</v>
+        <v>40268.219085999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.185616</v>
       </c>
       <c r="BA6" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.108000</v>
+        <v>-139.108</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>40279.545698</v>
+        <v>40279.545698000002</v>
       </c>
       <c r="BE6" s="1">
         <v>11.188763</v>
       </c>
       <c r="BF6" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.382000</v>
+        <v>-222.38200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>40290.727506</v>
+        <v>40290.727506000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.191869</v>
+        <v>11.191869000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.502000</v>
+        <v>-361.50200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>40302.027363</v>
+        <v>40302.027363000001</v>
       </c>
       <c r="BO6" s="1">
         <v>11.195008</v>
       </c>
       <c r="BP6" s="1">
-        <v>1489.410000</v>
+        <v>1489.41</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-588.894000</v>
+        <v>-588.89400000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>40312.438389</v>
+        <v>40312.438389000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>11.197900</v>
+        <v>11.197900000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1621.890000</v>
+        <v>1621.89</v>
       </c>
       <c r="BV6" s="1">
-        <v>-845.824000</v>
+        <v>-845.82399999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>40323.140071</v>
+        <v>40323.140071000002</v>
       </c>
       <c r="BY6" s="1">
         <v>11.200872</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1776.180000</v>
+        <v>1776.18</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1126.750000</v>
+        <v>-1126.75</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>40334.560456</v>
+        <v>40334.560455999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.204045</v>
+        <v>11.204045000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2198.630000</v>
+        <v>2198.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1809.880000</v>
+        <v>-1809.88</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>40161.231998</v>
+        <v>40161.231998000003</v>
       </c>
       <c r="B7" s="1">
-        <v>11.155898</v>
+        <v>11.155898000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1153.200000</v>
+        <v>1153.2</v>
       </c>
       <c r="D7" s="1">
-        <v>-237.369000</v>
+        <v>-237.369</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>40171.349889</v>
+        <v>40171.349888999997</v>
       </c>
       <c r="G7" s="1">
-        <v>11.158708</v>
+        <v>11.158708000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.830000</v>
+        <v>1172.83</v>
       </c>
       <c r="I7" s="1">
-        <v>-201.730000</v>
+        <v>-201.73</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>40182.164194</v>
+        <v>40182.164193999997</v>
       </c>
       <c r="L7" s="1">
         <v>11.161712</v>
       </c>
       <c r="M7" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-144.386000</v>
+        <v>-144.386</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>40192.672899</v>
+        <v>40192.672898999997</v>
       </c>
       <c r="Q7" s="1">
         <v>11.164631</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-124.920000</v>
+        <v>-124.92</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>40203.863636</v>
+        <v>40203.863636000002</v>
       </c>
       <c r="V7" s="1">
-        <v>11.167740</v>
+        <v>11.16774</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.820000</v>
+        <v>1216.82</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.036000</v>
+        <v>-106.036</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>40214.324759</v>
+        <v>40214.324759000003</v>
       </c>
       <c r="AA7" s="1">
         <v>11.170646</v>
       </c>
       <c r="AB7" s="1">
-        <v>1225.840000</v>
+        <v>1225.8399999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.877900</v>
+        <v>-89.877899999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>40224.955053</v>
+        <v>40224.955052999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.173599</v>
+        <v>11.173598999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.918900</v>
+        <v>-85.918899999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>40235.452346</v>
+        <v>40235.452345999998</v>
       </c>
       <c r="AK7" s="1">
         <v>11.176515</v>
       </c>
       <c r="AL7" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.671500</v>
+        <v>-89.671499999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>40246.424348</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.179562</v>
+        <v>11.179562000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1246.760000</v>
+        <v>1246.76</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.778000</v>
+        <v>-101.77800000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>40257.424621</v>
+        <v>40257.424620999998</v>
       </c>
       <c r="AU7" s="1">
         <v>11.182618</v>
       </c>
       <c r="AV7" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.377000</v>
+        <v>-121.377</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>40268.578160</v>
+        <v>40268.578159999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.185716</v>
+        <v>11.185715999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.091000</v>
+        <v>-139.09100000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>40279.970273</v>
+        <v>40279.970272999999</v>
       </c>
       <c r="BE7" s="1">
         <v>11.188881</v>
       </c>
       <c r="BF7" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.399000</v>
+        <v>-222.399</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>40291.148609</v>
+        <v>40291.148609000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.191986</v>
       </c>
       <c r="BK7" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.501000</v>
+        <v>-361.50099999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>40302.424410</v>
+        <v>40302.42441</v>
       </c>
       <c r="BO7" s="1">
-        <v>11.195118</v>
+        <v>11.195118000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1489.410000</v>
+        <v>1489.41</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-588.891000</v>
+        <v>-588.89099999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>40312.834236</v>
+        <v>40312.834236000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.198010</v>
+        <v>11.19801</v>
       </c>
       <c r="BU7" s="1">
-        <v>1622.020000</v>
+        <v>1622.02</v>
       </c>
       <c r="BV7" s="1">
-        <v>-845.861000</v>
+        <v>-845.86099999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>40323.563655</v>
+        <v>40323.563654999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>11.200990</v>
+        <v>11.200989999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1776.140000</v>
+        <v>1776.14</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1126.650000</v>
+        <v>-1126.6500000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>40335.096168</v>
+        <v>40335.096167999996</v>
       </c>
       <c r="CD7" s="1">
         <v>11.204193</v>
       </c>
       <c r="CE7" s="1">
-        <v>2201.560000</v>
+        <v>2201.56</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1809.770000</v>
+        <v>-1809.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>40161.632270</v>
+        <v>40161.632270000002</v>
       </c>
       <c r="B8" s="1">
-        <v>11.156009</v>
+        <v>11.156008999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1153.350000</v>
+        <v>1153.3499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-237.599000</v>
+        <v>-237.59899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>40171.693652</v>
+        <v>40171.693652000002</v>
       </c>
       <c r="G8" s="1">
         <v>11.158804</v>
       </c>
       <c r="H8" s="1">
-        <v>1172.220000</v>
+        <v>1172.22</v>
       </c>
       <c r="I8" s="1">
-        <v>-201.799000</v>
+        <v>-201.79900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>40182.824832</v>
+        <v>40182.824831999998</v>
       </c>
       <c r="L8" s="1">
         <v>11.161896</v>
       </c>
       <c r="M8" s="1">
-        <v>1199.460000</v>
+        <v>1199.46</v>
       </c>
       <c r="N8" s="1">
-        <v>-144.608000</v>
+        <v>-144.608</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>40193.336082</v>
+        <v>40193.336082000002</v>
       </c>
       <c r="Q8" s="1">
         <v>11.164816</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.470000</v>
+        <v>1208.47</v>
       </c>
       <c r="S8" s="1">
-        <v>-124.950000</v>
+        <v>-124.95</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>40204.236132</v>
+        <v>40204.236131999998</v>
       </c>
       <c r="V8" s="1">
         <v>11.167843</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.036000</v>
+        <v>-106.036</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>40214.712667</v>
       </c>
       <c r="AA8" s="1">
-        <v>11.170754</v>
+        <v>11.170754000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1225.840000</v>
+        <v>1225.8399999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.815800</v>
+        <v>-89.815799999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>40225.297752</v>
+        <v>40225.297751999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>11.173694</v>
+        <v>11.173693999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1231.060000</v>
+        <v>1231.06</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.952700</v>
+        <v>-85.952699999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>40235.801034</v>
+        <v>40235.801033999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.176611</v>
+        <v>11.176610999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.660600</v>
+        <v>-89.660600000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>40246.782493</v>
+        <v>40246.782492999999</v>
       </c>
       <c r="AP8" s="1">
         <v>11.179662</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1246.780000</v>
+        <v>1246.78</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.777000</v>
+        <v>-101.777</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>40257.820429</v>
+        <v>40257.820428999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.182728</v>
+        <v>11.182727999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.375000</v>
+        <v>-121.375</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>40268.986366</v>
+        <v>40268.986365999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11.185830</v>
+        <v>11.185829999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.124000</v>
+        <v>-139.124</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>40280.266912</v>
+        <v>40280.266911999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>11.188963</v>
+        <v>11.188962999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.394000</v>
+        <v>-222.39400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>40291.476497</v>
+        <v>40291.476497000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.192077</v>
+        <v>11.192076999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.564000</v>
+        <v>-361.56400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>40302.847747</v>
@@ -2218,225 +2634,225 @@
         <v>11.195235</v>
       </c>
       <c r="BP8" s="1">
-        <v>1489.430000</v>
+        <v>1489.43</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-588.923000</v>
+        <v>-588.923</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>40313.246868</v>
+        <v>40313.246868000002</v>
       </c>
       <c r="BT8" s="1">
         <v>11.198124</v>
       </c>
       <c r="BU8" s="1">
-        <v>1622.090000</v>
+        <v>1622.09</v>
       </c>
       <c r="BV8" s="1">
-        <v>-845.649000</v>
+        <v>-845.649</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>40323.989222</v>
+        <v>40323.989221999997</v>
       </c>
       <c r="BY8" s="1">
         <v>11.201108</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1776.110000</v>
+        <v>1776.11</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1126.680000</v>
+        <v>-1126.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>40335.632818</v>
+        <v>40335.632817999998</v>
       </c>
       <c r="CD8" s="1">
         <v>11.204342</v>
       </c>
       <c r="CE8" s="1">
-        <v>2200.210000</v>
+        <v>2200.21</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1807.980000</v>
+        <v>-1807.98</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>40161.939293</v>
+        <v>40161.939293000003</v>
       </c>
       <c r="B9" s="1">
         <v>11.156094</v>
       </c>
       <c r="C9" s="1">
-        <v>1153.340000</v>
+        <v>1153.3399999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-237.419000</v>
+        <v>-237.41900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>40172.346846</v>
       </c>
       <c r="G9" s="1">
-        <v>11.158985</v>
+        <v>11.158984999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.470000</v>
+        <v>1172.47</v>
       </c>
       <c r="I9" s="1">
-        <v>-201.861000</v>
+        <v>-201.86099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>40183.202785</v>
+        <v>40183.202785000001</v>
       </c>
       <c r="L9" s="1">
         <v>11.162001</v>
       </c>
       <c r="M9" s="1">
-        <v>1199.890000</v>
+        <v>1199.8900000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-144.598000</v>
+        <v>-144.59800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>40193.720482</v>
+        <v>40193.720481999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.164922</v>
+        <v>11.164922000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.460000</v>
+        <v>1208.46</v>
       </c>
       <c r="S9" s="1">
-        <v>-124.988000</v>
+        <v>-124.988</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>40204.578867</v>
+        <v>40204.578866999997</v>
       </c>
       <c r="V9" s="1">
-        <v>11.167939</v>
+        <v>11.167939000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="X9" s="1">
-        <v>-105.995000</v>
+        <v>-105.995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>40215.062840</v>
+        <v>40215.062839999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.170851</v>
+        <v>11.170851000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1225.850000</v>
+        <v>1225.8499999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.860800</v>
+        <v>-89.860799999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>40225.643960</v>
+        <v>40225.643960000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.173790</v>
+        <v>11.17379</v>
       </c>
       <c r="AG9" s="1">
-        <v>1231.120000</v>
+        <v>1231.1199999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.939500</v>
+        <v>-85.939499999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>40236.148730</v>
+        <v>40236.148730000001</v>
       </c>
       <c r="AK9" s="1">
         <v>11.176708</v>
       </c>
       <c r="AL9" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.651600</v>
+        <v>-89.651600000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>40247.209527</v>
+        <v>40247.209526999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>11.179780</v>
+        <v>11.179779999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1246.770000</v>
+        <v>1246.77</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.789000</v>
+        <v>-101.789</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>40258.346188</v>
+        <v>40258.346188000003</v>
       </c>
       <c r="AU9" s="1">
         <v>11.182874</v>
       </c>
       <c r="AV9" s="1">
-        <v>1256.770000</v>
+        <v>1256.77</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.354000</v>
+        <v>-121.354</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>40269.297855</v>
+        <v>40269.297854999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.185916</v>
+        <v>11.185916000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.099000</v>
+        <v>-139.09899999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>40280.629491</v>
@@ -2445,330 +2861,330 @@
         <v>11.189064</v>
       </c>
       <c r="BF9" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.381000</v>
+        <v>-222.381</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>40291.851440</v>
+        <v>40291.851439999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.192181</v>
       </c>
       <c r="BK9" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.568000</v>
+        <v>-361.56799999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>40303.242593</v>
+        <v>40303.242593000003</v>
       </c>
       <c r="BO9" s="1">
         <v>11.195345</v>
       </c>
       <c r="BP9" s="1">
-        <v>1489.430000</v>
+        <v>1489.43</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-588.937000</v>
+        <v>-588.93700000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>40313.663013</v>
+        <v>40313.663012999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.198240</v>
+        <v>11.19824</v>
       </c>
       <c r="BU9" s="1">
-        <v>1622.200000</v>
+        <v>1622.2</v>
       </c>
       <c r="BV9" s="1">
-        <v>-845.843000</v>
+        <v>-845.84299999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>40324.404878</v>
+        <v>40324.404878000001</v>
       </c>
       <c r="BY9" s="1">
         <v>11.201224</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1776.060000</v>
+        <v>1776.06</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1126.730000</v>
+        <v>-1126.73</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>40336.177911</v>
+        <v>40336.177910999999</v>
       </c>
       <c r="CD9" s="1">
         <v>11.204494</v>
       </c>
       <c r="CE9" s="1">
-        <v>2199.660000</v>
+        <v>2199.66</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1810.360000</v>
+        <v>-1810.36</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>40162.403548</v>
+        <v>40162.403548000002</v>
       </c>
       <c r="B10" s="1">
-        <v>11.156223</v>
+        <v>11.156223000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1153.230000</v>
+        <v>1153.23</v>
       </c>
       <c r="D10" s="1">
-        <v>-237.573000</v>
+        <v>-237.57300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>40172.726286</v>
+        <v>40172.726285999997</v>
       </c>
       <c r="G10" s="1">
         <v>11.159091</v>
       </c>
       <c r="H10" s="1">
-        <v>1171.750000</v>
+        <v>1171.75</v>
       </c>
       <c r="I10" s="1">
-        <v>-201.966000</v>
+        <v>-201.96600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>40183.549520</v>
+        <v>40183.54952</v>
       </c>
       <c r="L10" s="1">
-        <v>11.162097</v>
+        <v>11.162096999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.620000</v>
+        <v>1199.6199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-144.610000</v>
+        <v>-144.61000000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>40194.066659</v>
+        <v>40194.066658999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.165019</v>
+        <v>11.165018999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.390000</v>
+        <v>1208.3900000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-124.947000</v>
+        <v>-124.947</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>40204.923125</v>
+        <v>40204.923125000001</v>
       </c>
       <c r="V10" s="1">
         <v>11.168034</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.590000</v>
+        <v>1216.5899999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.817000</v>
+        <v>-105.81699999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>40215.409013</v>
+        <v>40215.409012999997</v>
       </c>
       <c r="AA10" s="1">
         <v>11.170947</v>
       </c>
       <c r="AB10" s="1">
-        <v>1225.730000</v>
+        <v>1225.73</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.938000</v>
+        <v>-89.938000000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>40226.077465</v>
+        <v>40226.077465000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.173910</v>
+        <v>11.173909999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.016200</v>
+        <v>-86.016199999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>40236.576318</v>
+        <v>40236.576317999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.176827</v>
+        <v>11.176826999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.640700</v>
+        <v>-89.640699999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>40247.505130</v>
+        <v>40247.505129999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.179863</v>
+        <v>11.179862999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1246.790000</v>
+        <v>1246.79</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.780000</v>
+        <v>-101.78</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>40258.516316</v>
+        <v>40258.516316000001</v>
       </c>
       <c r="AU10" s="1">
         <v>11.182921</v>
       </c>
       <c r="AV10" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.353000</v>
+        <v>-121.35299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>40269.654974</v>
+        <v>40269.654973999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11.186015</v>
+        <v>11.186014999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.085000</v>
+        <v>-139.08500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>40280.993025</v>
+        <v>40280.993025000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.189165</v>
+        <v>11.189164999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1305.070000</v>
+        <v>1305.07</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.377000</v>
+        <v>-222.37700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>40292.227903</v>
+        <v>40292.227902999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.192286</v>
+        <v>11.192285999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.502000</v>
+        <v>-361.50200000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>40303.663207</v>
+        <v>40303.663206999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.195462</v>
+        <v>11.195461999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1489.400000</v>
+        <v>1489.4</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-588.910000</v>
+        <v>-588.91</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>40314.098500</v>
+        <v>40314.0985</v>
       </c>
       <c r="BT10" s="1">
         <v>11.198361</v>
       </c>
       <c r="BU10" s="1">
-        <v>1622.180000</v>
+        <v>1622.18</v>
       </c>
       <c r="BV10" s="1">
-        <v>-845.738000</v>
+        <v>-845.73800000000006</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>40324.851765</v>
+        <v>40324.851764999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>11.201348</v>
+        <v>11.201347999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1776.340000</v>
+        <v>1776.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1126.610000</v>
+        <v>-1126.6099999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>40336.717589</v>
@@ -2777,105 +3193,105 @@
         <v>11.204644</v>
       </c>
       <c r="CE10" s="1">
-        <v>2201.500000</v>
+        <v>2201.5</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1808.590000</v>
+        <v>-1808.59</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>40162.645595</v>
+        <v>40162.645595000002</v>
       </c>
       <c r="B11" s="1">
-        <v>11.156290</v>
+        <v>11.15629</v>
       </c>
       <c r="C11" s="1">
-        <v>1153.240000</v>
+        <v>1153.24</v>
       </c>
       <c r="D11" s="1">
-        <v>-237.792000</v>
+        <v>-237.792</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>40173.071997</v>
+        <v>40173.071996999999</v>
       </c>
       <c r="G11" s="1">
-        <v>11.159187</v>
+        <v>11.159186999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.460000</v>
+        <v>1172.46</v>
       </c>
       <c r="I11" s="1">
-        <v>-201.463000</v>
+        <v>-201.46299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>40183.895199</v>
+        <v>40183.895198999999</v>
       </c>
       <c r="L11" s="1">
         <v>11.162193</v>
       </c>
       <c r="M11" s="1">
-        <v>1199.550000</v>
+        <v>1199.55</v>
       </c>
       <c r="N11" s="1">
-        <v>-144.433000</v>
+        <v>-144.43299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>40194.415379</v>
+        <v>40194.415378999998</v>
       </c>
       <c r="Q11" s="1">
         <v>11.165115</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-124.931000</v>
+        <v>-124.931</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>40205.345187</v>
+        <v>40205.345186999999</v>
       </c>
       <c r="V11" s="1">
         <v>11.168151</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.316000</v>
+        <v>-105.316</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>40215.830645</v>
+        <v>40215.830645000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>11.171064</v>
+        <v>11.171063999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1225.930000</v>
+        <v>1225.93</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.821000</v>
+        <v>-89.820999999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>40226.356215</v>
@@ -2884,754 +3300,754 @@
         <v>11.173988</v>
       </c>
       <c r="AG11" s="1">
-        <v>1231.030000</v>
+        <v>1231.03</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.927600</v>
+        <v>-85.927599999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>40236.846886</v>
+        <v>40236.846885999999</v>
       </c>
       <c r="AK11" s="1">
         <v>11.176902</v>
       </c>
       <c r="AL11" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.652900</v>
+        <v>-89.652900000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>40247.865264</v>
       </c>
       <c r="AP11" s="1">
-        <v>11.179963</v>
+        <v>11.179963000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1246.740000</v>
+        <v>1246.74</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.804000</v>
+        <v>-101.804</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>40258.883388</v>
+        <v>40258.883388000002</v>
       </c>
       <c r="AU11" s="1">
         <v>11.183023</v>
       </c>
       <c r="AV11" s="1">
-        <v>1256.770000</v>
+        <v>1256.77</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.367000</v>
+        <v>-121.367</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>40270.015566</v>
+        <v>40270.015566000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11.186115</v>
+        <v>11.186114999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.082000</v>
+        <v>-139.08199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>40281.719663</v>
+        <v>40281.719663000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.189367</v>
+        <v>11.189367000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.383000</v>
+        <v>-222.38300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>40293.001663</v>
+        <v>40293.001663000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.192500</v>
+        <v>11.192500000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.557000</v>
+        <v>-361.55700000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>40304.061457</v>
+        <v>40304.061457000003</v>
       </c>
       <c r="BO11" s="1">
         <v>11.195573</v>
       </c>
       <c r="BP11" s="1">
-        <v>1489.450000</v>
+        <v>1489.45</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-588.924000</v>
+        <v>-588.92399999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>40314.821171</v>
+        <v>40314.821171000003</v>
       </c>
       <c r="BT11" s="1">
         <v>11.198561</v>
       </c>
       <c r="BU11" s="1">
-        <v>1622.340000</v>
+        <v>1622.34</v>
       </c>
       <c r="BV11" s="1">
-        <v>-845.657000</v>
+        <v>-845.65700000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>40325.271895</v>
+        <v>40325.271894999998</v>
       </c>
       <c r="BY11" s="1">
         <v>11.201464</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1776.010000</v>
+        <v>1776.01</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1126.660000</v>
+        <v>-1126.6600000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>40337.567242</v>
+        <v>40337.567241999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.204880</v>
+        <v>11.204879999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2200.650000</v>
+        <v>2200.65</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1810.490000</v>
+        <v>-1810.49</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>40162.987339</v>
+        <v>40162.987338999999</v>
       </c>
       <c r="B12" s="1">
         <v>11.156385</v>
       </c>
       <c r="C12" s="1">
-        <v>1153.370000</v>
+        <v>1153.3699999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-237.600000</v>
+        <v>-237.6</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>40173.417708</v>
+        <v>40173.417708000001</v>
       </c>
       <c r="G12" s="1">
         <v>11.159283</v>
       </c>
       <c r="H12" s="1">
-        <v>1172.210000</v>
+        <v>1172.21</v>
       </c>
       <c r="I12" s="1">
-        <v>-201.595000</v>
+        <v>-201.595</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>40184.315806</v>
+        <v>40184.315805999999</v>
       </c>
       <c r="L12" s="1">
-        <v>11.162310</v>
+        <v>11.16231</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.030000</v>
+        <v>1200.03</v>
       </c>
       <c r="N12" s="1">
-        <v>-144.489000</v>
+        <v>-144.489</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>40194.840950</v>
+        <v>40194.840949999998</v>
       </c>
       <c r="Q12" s="1">
         <v>11.165234</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.350000</v>
+        <v>1208.3499999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-124.865000</v>
+        <v>-124.86499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>40205.611538</v>
+        <v>40205.611537999997</v>
       </c>
       <c r="V12" s="1">
         <v>11.168225</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.840000</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.483000</v>
+        <v>-105.483</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>40216.118331</v>
+        <v>40216.118330999998</v>
       </c>
       <c r="AA12" s="1">
         <v>11.171144</v>
       </c>
       <c r="AB12" s="1">
-        <v>1225.890000</v>
+        <v>1225.8900000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.885500</v>
+        <v>-89.885499999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>40226.698454</v>
+        <v>40226.698453999998</v>
       </c>
       <c r="AF12" s="1">
         <v>11.174083</v>
       </c>
       <c r="AG12" s="1">
-        <v>1231.070000</v>
+        <v>1231.07</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.948200</v>
+        <v>-85.9482</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>40237.195321</v>
+        <v>40237.195320999999</v>
       </c>
       <c r="AK12" s="1">
         <v>11.176999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.662300</v>
+        <v>-89.662300000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>40248.227306</v>
+        <v>40248.227306000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.180063</v>
+        <v>11.180063000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1246.750000</v>
+        <v>1246.75</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.789000</v>
+        <v>-101.789</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>40259.611979</v>
+        <v>40259.611979000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.183226</v>
+        <v>11.183225999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1256.760000</v>
+        <v>1256.76</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.385000</v>
+        <v>-121.38500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>40270.730797</v>
+        <v>40270.730796999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.186314</v>
+        <v>11.186313999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.075000</v>
+        <v>-139.07499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>40282.095629</v>
+        <v>40282.095629000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>11.189471</v>
+        <v>11.189470999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.396000</v>
+        <v>-222.39599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>40293.380110</v>
+        <v>40293.380109999998</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.192606</v>
       </c>
       <c r="BK12" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.518000</v>
+        <v>-361.51799999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>40304.481104</v>
+        <v>40304.481103999999</v>
       </c>
       <c r="BO12" s="1">
         <v>11.195689</v>
       </c>
       <c r="BP12" s="1">
-        <v>1489.390000</v>
+        <v>1489.39</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-588.958000</v>
+        <v>-588.95799999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>40314.971955</v>
+        <v>40314.971955000001</v>
       </c>
       <c r="BT12" s="1">
         <v>11.198603</v>
       </c>
       <c r="BU12" s="1">
-        <v>1622.340000</v>
+        <v>1622.34</v>
       </c>
       <c r="BV12" s="1">
-        <v>-845.690000</v>
+        <v>-845.69</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>40326.004499</v>
+        <v>40326.004499000002</v>
       </c>
       <c r="BY12" s="1">
         <v>11.201668</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1776.160000</v>
+        <v>1776.16</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1126.770000</v>
+        <v>-1126.77</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>40337.795859</v>
+        <v>40337.795858999998</v>
       </c>
       <c r="CD12" s="1">
         <v>11.204943</v>
       </c>
       <c r="CE12" s="1">
-        <v>2200.720000</v>
+        <v>2200.7199999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1810.970000</v>
+        <v>-1810.97</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>40163.407946</v>
+        <v>40163.407945999999</v>
       </c>
       <c r="B13" s="1">
         <v>11.156502</v>
       </c>
       <c r="C13" s="1">
-        <v>1153.500000</v>
+        <v>1153.5</v>
       </c>
       <c r="D13" s="1">
-        <v>-237.600000</v>
+        <v>-237.6</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>40173.829420</v>
+        <v>40173.829420000002</v>
       </c>
       <c r="G13" s="1">
         <v>11.159397</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.750000</v>
+        <v>1172.75</v>
       </c>
       <c r="I13" s="1">
-        <v>-201.750000</v>
+        <v>-201.75</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>40184.610431</v>
+        <v>40184.610431000001</v>
       </c>
       <c r="L13" s="1">
-        <v>11.162392</v>
+        <v>11.162392000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1199.700000</v>
+        <v>1199.7</v>
       </c>
       <c r="N13" s="1">
-        <v>-144.632000</v>
+        <v>-144.63200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>40195.112721</v>
+        <v>40195.112720999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.165309</v>
+        <v>11.165309000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-124.874000</v>
+        <v>-124.874</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>40205.956257</v>
+        <v>40205.956256999998</v>
       </c>
       <c r="V13" s="1">
-        <v>11.168321</v>
+        <v>11.168321000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.327000</v>
+        <v>-105.327</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>40216.469967</v>
+        <v>40216.469966999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.171242</v>
+        <v>11.171241999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1225.810000</v>
+        <v>1225.81</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.957500</v>
+        <v>-89.957499999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>40227.043210</v>
+        <v>40227.043210000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.174179</v>
+        <v>11.174179000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1231.050000</v>
+        <v>1231.05</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.976800</v>
+        <v>-85.976799999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>40237.543976</v>
+        <v>40237.543976000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>11.177096</v>
+        <v>11.177096000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.647200</v>
+        <v>-89.647199999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>40248.945018</v>
+        <v>40248.945017999999</v>
       </c>
       <c r="AP13" s="1">
         <v>11.180263</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1246.740000</v>
+        <v>1246.74</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.803000</v>
+        <v>-101.803</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>40260.001379</v>
+        <v>40260.001379000001</v>
       </c>
       <c r="AU13" s="1">
         <v>11.183334</v>
       </c>
       <c r="AV13" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.397000</v>
+        <v>-121.39700000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>40271.090927</v>
+        <v>40271.090926999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11.186414</v>
+        <v>11.186413999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.080000</v>
+        <v>-139.08000000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>40282.456256</v>
+        <v>40282.456255999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>11.189571</v>
+        <v>11.189571000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.386000</v>
+        <v>-222.386</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>40293.754590</v>
+        <v>40293.754589999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>11.192710</v>
+        <v>11.19271</v>
       </c>
       <c r="BK13" s="1">
-        <v>1374.630000</v>
+        <v>1374.63</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.556000</v>
+        <v>-361.55599999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>40305.191343</v>
+        <v>40305.191342999999</v>
       </c>
       <c r="BO13" s="1">
         <v>11.195886</v>
       </c>
       <c r="BP13" s="1">
-        <v>1489.400000</v>
+        <v>1489.4</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-588.934000</v>
+        <v>-588.93399999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>40315.546817</v>
+        <v>40315.546817000002</v>
       </c>
       <c r="BT13" s="1">
         <v>11.198763</v>
       </c>
       <c r="BU13" s="1">
-        <v>1622.560000</v>
+        <v>1622.56</v>
       </c>
       <c r="BV13" s="1">
-        <v>-845.753000</v>
+        <v>-845.75300000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>40326.176084</v>
+        <v>40326.176083999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.201716</v>
+        <v>11.201715999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1776.190000</v>
+        <v>1776.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1126.720000</v>
+        <v>-1126.72</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>40338.316694</v>
+        <v>40338.316694000001</v>
       </c>
       <c r="CD13" s="1">
         <v>11.205088</v>
       </c>
       <c r="CE13" s="1">
-        <v>2202.040000</v>
+        <v>2202.04</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1809.050000</v>
+        <v>-1809.05</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>40163.686726</v>
       </c>
       <c r="B14" s="1">
-        <v>11.156580</v>
+        <v>11.15658</v>
       </c>
       <c r="C14" s="1">
-        <v>1153.430000</v>
+        <v>1153.43</v>
       </c>
       <c r="D14" s="1">
-        <v>-237.658000</v>
+        <v>-237.65799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>40174.116604</v>
+        <v>40174.116604000003</v>
       </c>
       <c r="G14" s="1">
-        <v>11.159477</v>
+        <v>11.159477000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1172.470000</v>
+        <v>1172.47</v>
       </c>
       <c r="I14" s="1">
-        <v>-202.595000</v>
+        <v>-202.595</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>40184.954655</v>
+        <v>40184.954655000001</v>
       </c>
       <c r="L14" s="1">
         <v>11.162487</v>
       </c>
       <c r="M14" s="1">
-        <v>1199.570000</v>
+        <v>1199.57</v>
       </c>
       <c r="N14" s="1">
-        <v>-144.583000</v>
+        <v>-144.583</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>40195.460913</v>
+        <v>40195.460913000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.165406</v>
+        <v>11.165406000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="S14" s="1">
-        <v>-124.901000</v>
+        <v>-124.901</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>40206.297505</v>
+        <v>40206.297505000002</v>
       </c>
       <c r="V14" s="1">
-        <v>11.168416</v>
+        <v>11.168416000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-105.448000</v>
+        <v>-105.44799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>40216.820131</v>
@@ -3640,497 +4056,497 @@
         <v>11.171339</v>
       </c>
       <c r="AB14" s="1">
-        <v>1225.840000</v>
+        <v>1225.8399999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.959600</v>
+        <v>-89.959599999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>40227.730165</v>
+        <v>40227.730165000001</v>
       </c>
       <c r="AF14" s="1">
         <v>11.174369</v>
       </c>
       <c r="AG14" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.980500</v>
+        <v>-85.980500000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>40238.239863</v>
+        <v>40238.239863000003</v>
       </c>
       <c r="AK14" s="1">
         <v>11.177289</v>
       </c>
       <c r="AL14" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.631700</v>
+        <v>-89.631699999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>40249.304616</v>
+        <v>40249.304616000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>11.180362</v>
+        <v>11.180362000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1246.770000</v>
+        <v>1246.77</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.800000</v>
+        <v>-101.8</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>40260.367882</v>
+        <v>40260.367881999999</v>
       </c>
       <c r="AU14" s="1">
         <v>11.183436</v>
       </c>
       <c r="AV14" s="1">
-        <v>1256.720000</v>
+        <v>1256.72</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.378000</v>
+        <v>-121.378</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>40271.449036</v>
+        <v>40271.449035999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.186514</v>
+        <v>11.186514000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.083000</v>
+        <v>-139.083</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>40283.129324</v>
+        <v>40283.129324000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.189758</v>
+        <v>11.189757999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.413000</v>
+        <v>-222.41300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>40294.467342</v>
+        <v>40294.467342000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.192908</v>
+        <v>11.192907999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.548000</v>
+        <v>-361.548</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>40305.296034</v>
+        <v>40305.296033999999</v>
       </c>
       <c r="BO14" s="1">
         <v>11.195916</v>
       </c>
       <c r="BP14" s="1">
-        <v>1489.410000</v>
+        <v>1489.41</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-588.896000</v>
+        <v>-588.89599999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>40315.813664</v>
+        <v>40315.813664000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.198837</v>
+        <v>11.198836999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1622.580000</v>
+        <v>1622.58</v>
       </c>
       <c r="BV14" s="1">
-        <v>-845.660000</v>
+        <v>-845.66</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>40326.602643</v>
+        <v>40326.602642999998</v>
       </c>
       <c r="BY14" s="1">
         <v>11.201834</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1776.040000</v>
+        <v>1776.04</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1126.680000</v>
+        <v>-1126.68</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>40338.832003</v>
+        <v>40338.832003000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.205231</v>
+        <v>11.205230999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2200.430000</v>
+        <v>2200.4299999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1807.800000</v>
+        <v>-1807.8</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>40164.027977</v>
+        <v>40164.027976999998</v>
       </c>
       <c r="B15" s="1">
-        <v>11.156674</v>
+        <v>11.156674000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1153.320000</v>
+        <v>1153.32</v>
       </c>
       <c r="D15" s="1">
-        <v>-237.681000</v>
+        <v>-237.68100000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>40174.461324</v>
+        <v>40174.461324000004</v>
       </c>
       <c r="G15" s="1">
         <v>11.159573</v>
       </c>
       <c r="H15" s="1">
-        <v>1172.720000</v>
+        <v>1172.72</v>
       </c>
       <c r="I15" s="1">
-        <v>-201.786000</v>
+        <v>-201.786</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>40185.299375</v>
+        <v>40185.299375000002</v>
       </c>
       <c r="L15" s="1">
         <v>11.162583</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.070000</v>
+        <v>1200.07</v>
       </c>
       <c r="N15" s="1">
-        <v>-144.406000</v>
+        <v>-144.40600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>40195.812575</v>
+        <v>40195.812575000004</v>
       </c>
       <c r="Q15" s="1">
-        <v>11.165503</v>
+        <v>11.165502999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="S15" s="1">
-        <v>-124.972000</v>
+        <v>-124.97199999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>40206.984464</v>
+        <v>40206.984464000001</v>
       </c>
       <c r="V15" s="1">
         <v>11.168607</v>
       </c>
       <c r="W15" s="1">
-        <v>1216.980000</v>
+        <v>1216.98</v>
       </c>
       <c r="X15" s="1">
-        <v>-105.415000</v>
+        <v>-105.41500000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>40217.516547</v>
+        <v>40217.516546999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.171532</v>
+        <v>11.171531999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.916600</v>
+        <v>-89.916600000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>40228.071381</v>
+        <v>40228.071381000002</v>
       </c>
       <c r="AF15" s="1">
         <v>11.174464</v>
       </c>
       <c r="AG15" s="1">
-        <v>1231.120000</v>
+        <v>1231.1199999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.926300</v>
+        <v>-85.926299999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>40238.591032</v>
+        <v>40238.591031999997</v>
       </c>
       <c r="AK15" s="1">
         <v>11.177386</v>
       </c>
       <c r="AL15" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.631700</v>
+        <v>-89.631699999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>40249.668185</v>
+        <v>40249.668185000002</v>
       </c>
       <c r="AP15" s="1">
         <v>11.180463</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1246.780000</v>
+        <v>1246.78</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.796000</v>
+        <v>-101.79600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>40261.045913</v>
+        <v>40261.045913000002</v>
       </c>
       <c r="AU15" s="1">
         <v>11.183624</v>
       </c>
       <c r="AV15" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.386000</v>
+        <v>-121.386</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>40272.113146</v>
+        <v>40272.113146000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.186698</v>
       </c>
       <c r="BA15" s="1">
-        <v>1265.150000</v>
+        <v>1265.1500000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.130000</v>
+        <v>-139.13</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>40283.575202</v>
       </c>
       <c r="BE15" s="1">
-        <v>11.189882</v>
+        <v>11.189882000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.395000</v>
+        <v>-222.39500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>40294.904844</v>
+        <v>40294.904843999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>11.193029</v>
+        <v>11.193028999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1374.680000</v>
+        <v>1374.68</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.518000</v>
+        <v>-361.51799999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>40305.720611</v>
+        <v>40305.720610999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.196034</v>
+        <v>11.196033999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1489.470000</v>
+        <v>1489.47</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-588.920000</v>
+        <v>-588.91999999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>40316.223153</v>
+        <v>40316.223152999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>11.198951</v>
+        <v>11.198950999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1622.730000</v>
+        <v>1622.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-845.835000</v>
+        <v>-845.83500000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>40327.048081</v>
+        <v>40327.048081000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.201958</v>
+        <v>11.201957999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1776.040000</v>
+        <v>1776.04</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1126.780000</v>
+        <v>-1126.78</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>40339.352306</v>
+        <v>40339.352306000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.205376</v>
+        <v>11.205375999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2199.380000</v>
+        <v>2199.38</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1809.350000</v>
+        <v>-1809.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>40164.367209</v>
+        <v>40164.367209000004</v>
       </c>
       <c r="B16" s="1">
-        <v>11.156769</v>
+        <v>11.156769000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1153.460000</v>
+        <v>1153.46</v>
       </c>
       <c r="D16" s="1">
-        <v>-237.329000</v>
+        <v>-237.32900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>40174.805547</v>
+        <v>40174.805547000004</v>
       </c>
       <c r="G16" s="1">
         <v>11.159668</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.840000</v>
+        <v>1171.8399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-202.249000</v>
+        <v>-202.249</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>40185.991788</v>
+        <v>40185.991787999999</v>
       </c>
       <c r="L16" s="1">
         <v>11.162775</v>
       </c>
       <c r="M16" s="1">
-        <v>1199.980000</v>
+        <v>1199.98</v>
       </c>
       <c r="N16" s="1">
-        <v>-144.641000</v>
+        <v>-144.64099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>40196.506975</v>
+        <v>40196.506974999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>11.165696</v>
+        <v>11.165696000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-124.964000</v>
+        <v>-124.964</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>40207.327696</v>
@@ -4139,647 +4555,647 @@
         <v>11.168702</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.451000</v>
+        <v>-105.45099999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>40217.865319</v>
+        <v>40217.865318999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>11.171629</v>
+        <v>11.171628999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.993000</v>
+        <v>-89.992999999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>40228.414388</v>
+        <v>40228.414387999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.174560</v>
+        <v>11.17456</v>
       </c>
       <c r="AG16" s="1">
-        <v>1231.120000</v>
+        <v>1231.1199999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.979800</v>
+        <v>-85.979799999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>40238.936742</v>
+        <v>40238.936741999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.177482</v>
+        <v>11.177481999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.621700</v>
+        <v>-89.621700000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>40250.347207</v>
+        <v>40250.347206999999</v>
       </c>
       <c r="AP16" s="1">
         <v>11.180652</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1246.770000</v>
+        <v>1246.77</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.763000</v>
+        <v>-101.76300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>40261.493340</v>
+        <v>40261.493340000001</v>
       </c>
       <c r="AU16" s="1">
         <v>11.183748</v>
       </c>
       <c r="AV16" s="1">
-        <v>1256.760000</v>
+        <v>1256.76</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.354000</v>
+        <v>-121.354</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>40272.555083</v>
+        <v>40272.555082999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>11.186821</v>
       </c>
       <c r="BA16" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.121000</v>
+        <v>-139.12100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>40283.936779</v>
+        <v>40283.936779000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>11.189982</v>
+        <v>11.189982000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.374000</v>
+        <v>-222.374</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>40295.412715</v>
+        <v>40295.412714999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.193170</v>
+        <v>11.19317</v>
       </c>
       <c r="BK16" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.560000</v>
+        <v>-361.56</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>40306.117373</v>
+        <v>40306.117373000001</v>
       </c>
       <c r="BO16" s="1">
         <v>11.196144</v>
       </c>
       <c r="BP16" s="1">
-        <v>1489.390000</v>
+        <v>1489.39</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-588.909000</v>
+        <v>-588.90899999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>40316.642016</v>
+        <v>40316.642015999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.199067</v>
+        <v>11.199066999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1622.730000</v>
+        <v>1622.73</v>
       </c>
       <c r="BV16" s="1">
-        <v>-845.799000</v>
+        <v>-845.79899999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>40327.482049</v>
+        <v>40327.482048999998</v>
       </c>
       <c r="BY16" s="1">
         <v>11.202078</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1776.140000</v>
+        <v>1776.14</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1126.820000</v>
+        <v>-1126.82</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>40339.868145</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.205519</v>
+        <v>11.205519000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2199.440000</v>
+        <v>2199.44</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1808.690000</v>
+        <v>-1808.69</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>40165.054201</v>
+        <v>40165.054200999999</v>
       </c>
       <c r="B17" s="1">
-        <v>11.156960</v>
+        <v>11.15696</v>
       </c>
       <c r="C17" s="1">
-        <v>1153.430000</v>
+        <v>1153.43</v>
       </c>
       <c r="D17" s="1">
-        <v>-237.600000</v>
+        <v>-237.6</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>40175.496443</v>
+        <v>40175.496443000004</v>
       </c>
       <c r="G17" s="1">
-        <v>11.159860</v>
+        <v>11.15986</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.390000</v>
+        <v>1172.3900000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-201.668000</v>
+        <v>-201.66800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>40186.340476</v>
+        <v>40186.340475999998</v>
       </c>
       <c r="L17" s="1">
         <v>11.162872</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.940000</v>
+        <v>1199.94</v>
       </c>
       <c r="N17" s="1">
-        <v>-144.348000</v>
+        <v>-144.34800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>40196.855198</v>
+        <v>40196.855197999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.165793</v>
+        <v>11.165793000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-124.958000</v>
+        <v>-124.958</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>40207.673903</v>
+        <v>40207.673903000003</v>
       </c>
       <c r="V17" s="1">
-        <v>11.168798</v>
+        <v>11.168798000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.980000</v>
+        <v>1216.98</v>
       </c>
       <c r="X17" s="1">
-        <v>-105.364000</v>
+        <v>-105.364</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>40218.211410</v>
+        <v>40218.211410000004</v>
       </c>
       <c r="AA17" s="1">
         <v>11.171725</v>
       </c>
       <c r="AB17" s="1">
-        <v>1225.710000</v>
+        <v>1225.71</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.797200</v>
+        <v>-89.797200000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>40229.067384</v>
+        <v>40229.067384000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.174741</v>
+        <v>11.174740999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.955300</v>
+        <v>-85.955299999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>40239.611301</v>
+        <v>40239.611300999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.177670</v>
+        <v>11.177670000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.645300</v>
+        <v>-89.645300000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>40250.770791</v>
+        <v>40250.770791000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>11.180770</v>
+        <v>11.180770000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1246.760000</v>
+        <v>1246.76</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.814000</v>
+        <v>-101.81399999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>40261.858361</v>
+        <v>40261.858360999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>11.183850</v>
+        <v>11.18385</v>
       </c>
       <c r="AV17" s="1">
-        <v>1256.730000</v>
+        <v>1256.73</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.371000</v>
+        <v>-121.371</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>40272.918678</v>
+        <v>40272.918678000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>11.186922</v>
+        <v>11.186921999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.112000</v>
+        <v>-139.11199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>40284.298858</v>
+        <v>40284.298858000002</v>
       </c>
       <c r="BE17" s="1">
         <v>11.190083</v>
       </c>
       <c r="BF17" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.392000</v>
+        <v>-222.392</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>40295.681547</v>
       </c>
       <c r="BJ17" s="1">
-        <v>11.193245</v>
+        <v>11.193244999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.519000</v>
+        <v>-361.51900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>40306.541485</v>
+        <v>40306.541485000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.196262</v>
+        <v>11.196262000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1489.420000</v>
+        <v>1489.42</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-588.969000</v>
+        <v>-588.96900000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>40317.059119</v>
+        <v>40317.059118999998</v>
       </c>
       <c r="BT17" s="1">
         <v>11.199183</v>
       </c>
       <c r="BU17" s="1">
-        <v>1622.820000</v>
+        <v>1622.82</v>
       </c>
       <c r="BV17" s="1">
-        <v>-845.885000</v>
+        <v>-845.88499999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>40327.902162</v>
+        <v>40327.902161999998</v>
       </c>
       <c r="BY17" s="1">
         <v>11.202195</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1776.160000</v>
+        <v>1776.16</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1126.700000</v>
+        <v>-1126.7</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>40340.423169</v>
+        <v>40340.423169000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>11.205673</v>
+        <v>11.205673000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2200.340000</v>
+        <v>2200.34</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1808.180000</v>
+        <v>-1808.18</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>40165.397399</v>
+        <v>40165.397399000001</v>
       </c>
       <c r="B18" s="1">
         <v>11.157055</v>
       </c>
       <c r="C18" s="1">
-        <v>1153.320000</v>
+        <v>1153.32</v>
       </c>
       <c r="D18" s="1">
-        <v>-237.383000</v>
+        <v>-237.38300000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>40175.841193</v>
       </c>
       <c r="G18" s="1">
-        <v>11.159956</v>
+        <v>11.159955999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1172.190000</v>
+        <v>1172.19</v>
       </c>
       <c r="I18" s="1">
-        <v>-201.388000</v>
+        <v>-201.38800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>40186.684203</v>
+        <v>40186.684202999997</v>
       </c>
       <c r="L18" s="1">
-        <v>11.162968</v>
+        <v>11.162967999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1199.870000</v>
+        <v>1199.8699999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-144.390000</v>
+        <v>-144.38999999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>40197.205342</v>
+        <v>40197.205342000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.165890</v>
+        <v>11.165889999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-124.869000</v>
+        <v>-124.869</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>40208.328622</v>
+        <v>40208.328622000001</v>
       </c>
       <c r="V18" s="1">
-        <v>11.168980</v>
+        <v>11.168979999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1217.010000</v>
+        <v>1217.01</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.401000</v>
+        <v>-105.401</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>40218.863648</v>
+        <v>40218.863647999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>11.171907</v>
+        <v>11.171906999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1225.790000</v>
+        <v>1225.79</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.852700</v>
+        <v>-89.852699999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>40229.444307</v>
+        <v>40229.444306999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>11.174846</v>
+        <v>11.174846000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1231.080000</v>
+        <v>1231.08</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.945900</v>
+        <v>-85.945899999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>40239.989750</v>
+        <v>40239.989750000001</v>
       </c>
       <c r="AK18" s="1">
         <v>11.177775</v>
       </c>
       <c r="AL18" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.620700</v>
+        <v>-89.620699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>40251.128902</v>
+        <v>40251.128901999997</v>
       </c>
       <c r="AP18" s="1">
         <v>11.180869</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1246.740000</v>
+        <v>1246.74</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.801000</v>
+        <v>-101.801</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>40262.223451</v>
+        <v>40262.223450999998</v>
       </c>
       <c r="AU18" s="1">
         <v>11.183951</v>
       </c>
       <c r="AV18" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.388000</v>
+        <v>-121.38800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>40273.274313</v>
+        <v>40273.274313000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.187021</v>
       </c>
       <c r="BA18" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.130000</v>
+        <v>-139.13</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>40284.719961</v>
+        <v>40284.719961000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.190200</v>
+        <v>11.190200000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.377000</v>
+        <v>-222.37700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>40296.180064</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.193383</v>
+        <v>11.193383000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1374.680000</v>
+        <v>1374.68</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.519000</v>
+        <v>-361.51900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>40306.938748</v>
@@ -4788,195 +5204,195 @@
         <v>11.196372</v>
       </c>
       <c r="BP18" s="1">
-        <v>1489.410000</v>
+        <v>1489.41</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-588.953000</v>
+        <v>-588.95299999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>40317.474311</v>
+        <v>40317.474310999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>11.199298</v>
+        <v>11.199298000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1622.850000</v>
+        <v>1622.85</v>
       </c>
       <c r="BV18" s="1">
-        <v>-845.998000</v>
+        <v>-845.99800000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>40328.320816</v>
+        <v>40328.320815999999</v>
       </c>
       <c r="BY18" s="1">
         <v>11.202311</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1776.390000</v>
+        <v>1776.39</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1126.760000</v>
+        <v>-1126.76</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>40340.951905</v>
+        <v>40340.951905000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.205820</v>
+        <v>11.205819999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2199.100000</v>
+        <v>2199.1</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1809.540000</v>
+        <v>-1809.54</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>40165.739145</v>
       </c>
       <c r="B19" s="1">
-        <v>11.157150</v>
+        <v>11.15715</v>
       </c>
       <c r="C19" s="1">
-        <v>1153.230000</v>
+        <v>1153.23</v>
       </c>
       <c r="D19" s="1">
-        <v>-237.606000</v>
+        <v>-237.60599999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>40176.187369</v>
+        <v>40176.187368999999</v>
       </c>
       <c r="G19" s="1">
         <v>11.160052</v>
       </c>
       <c r="H19" s="1">
-        <v>1172.480000</v>
+        <v>1172.48</v>
       </c>
       <c r="I19" s="1">
-        <v>-201.985000</v>
+        <v>-201.98500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>40187.345370</v>
+        <v>40187.345370000003</v>
       </c>
       <c r="L19" s="1">
-        <v>11.163151</v>
+        <v>11.163150999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1199.840000</v>
+        <v>1199.8399999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-144.769000</v>
+        <v>-144.76900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>40197.866508</v>
+        <v>40197.866507999999</v>
       </c>
       <c r="Q19" s="1">
         <v>11.166074</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.460000</v>
+        <v>1208.46</v>
       </c>
       <c r="S19" s="1">
-        <v>-124.878000</v>
+        <v>-124.878</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>40208.701646</v>
+        <v>40208.701646000001</v>
       </c>
       <c r="V19" s="1">
         <v>11.169084</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.940000</v>
+        <v>1216.94</v>
       </c>
       <c r="X19" s="1">
-        <v>-105.342000</v>
+        <v>-105.342</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>40219.256021</v>
+        <v>40219.256021000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.172016</v>
+        <v>11.172015999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.087000</v>
+        <v>-90.087000000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>40229.790051</v>
+        <v>40229.790051000004</v>
       </c>
       <c r="AF19" s="1">
         <v>11.174942</v>
       </c>
       <c r="AG19" s="1">
-        <v>1231.090000</v>
+        <v>1231.0899999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.963400</v>
+        <v>-85.963399999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>40240.329830</v>
+        <v>40240.329830000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.177869</v>
+        <v>11.177868999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1238.700000</v>
+        <v>1238.7</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.658300</v>
+        <v>-89.658299999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>40251.491973</v>
+        <v>40251.491972999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.180970</v>
+        <v>11.18097</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.810000</v>
+        <v>-101.81</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>40262.644064</v>
@@ -4985,210 +5401,210 @@
         <v>11.184068</v>
       </c>
       <c r="AV19" s="1">
-        <v>1256.730000</v>
+        <v>1256.73</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.357000</v>
+        <v>-121.357</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>40273.692408</v>
+        <v>40273.692408000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.187137</v>
       </c>
       <c r="BA19" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.088000</v>
+        <v>-139.08799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>40285.018058</v>
+        <v>40285.018058000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>11.190283</v>
+        <v>11.190283000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1305.080000</v>
+        <v>1305.08</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.358000</v>
+        <v>-222.358</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>40296.472170</v>
+        <v>40296.472170000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.193464</v>
+        <v>11.193464000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.585000</v>
+        <v>-361.58499999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>40307.360845</v>
+        <v>40307.360845000003</v>
       </c>
       <c r="BO19" s="1">
         <v>11.196489</v>
       </c>
       <c r="BP19" s="1">
-        <v>1489.420000</v>
+        <v>1489.42</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-588.901000</v>
+        <v>-588.90099999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>40317.889647</v>
+        <v>40317.889647000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.199414</v>
+        <v>11.199414000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1622.870000</v>
+        <v>1622.87</v>
       </c>
       <c r="BV19" s="1">
-        <v>-846.068000</v>
+        <v>-846.06799999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>40328.778096</v>
+        <v>40328.778096000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.202438</v>
+        <v>11.202438000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1776.200000</v>
+        <v>1776.2</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1126.720000</v>
+        <v>-1126.72</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>40341.471711</v>
+        <v>40341.471710999998</v>
       </c>
       <c r="CD19" s="1">
         <v>11.205964</v>
       </c>
       <c r="CE19" s="1">
-        <v>2200.510000</v>
+        <v>2200.5100000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1810.520000</v>
+        <v>-1810.52</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>40166.391878</v>
+        <v>40166.391878000002</v>
       </c>
       <c r="B20" s="1">
-        <v>11.157331</v>
+        <v>11.157330999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1153.220000</v>
+        <v>1153.22</v>
       </c>
       <c r="D20" s="1">
-        <v>-237.090000</v>
+        <v>-237.09</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>40176.841593</v>
+        <v>40176.841592999997</v>
       </c>
       <c r="G20" s="1">
-        <v>11.160234</v>
+        <v>11.160234000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1173.210000</v>
+        <v>1173.21</v>
       </c>
       <c r="I20" s="1">
-        <v>-201.738000</v>
+        <v>-201.738</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>40187.721834</v>
+        <v>40187.721834000004</v>
       </c>
       <c r="L20" s="1">
-        <v>11.163256</v>
+        <v>11.163256000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1199.860000</v>
+        <v>1199.8599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-144.523000</v>
+        <v>-144.523</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>40198.253387</v>
+        <v>40198.253386999997</v>
       </c>
       <c r="Q20" s="1">
         <v>11.166181</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.430000</v>
+        <v>1208.43</v>
       </c>
       <c r="S20" s="1">
-        <v>-124.960000</v>
+        <v>-124.96</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>40209.048816</v>
+        <v>40209.048816000002</v>
       </c>
       <c r="V20" s="1">
-        <v>11.169180</v>
+        <v>11.169180000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.960000</v>
+        <v>1216.96</v>
       </c>
       <c r="X20" s="1">
-        <v>-105.243000</v>
+        <v>-105.24299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>40219.607647</v>
+        <v>40219.607646999997</v>
       </c>
       <c r="AA20" s="1">
         <v>11.172113</v>
       </c>
       <c r="AB20" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.999300</v>
+        <v>-89.999300000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>40230.134242</v>
@@ -5197,13 +5613,13 @@
         <v>11.175037</v>
       </c>
       <c r="AG20" s="1">
-        <v>1231.070000</v>
+        <v>1231.07</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.932500</v>
+        <v>-85.932500000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>40240.977283</v>
@@ -5212,165 +5628,165 @@
         <v>11.178049</v>
       </c>
       <c r="AL20" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.619200</v>
+        <v>-89.619200000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>40251.922501</v>
+        <v>40251.922501000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>11.181090</v>
+        <v>11.181089999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.795000</v>
+        <v>-101.795</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>40262.952536</v>
+        <v>40262.952535999997</v>
       </c>
       <c r="AU20" s="1">
         <v>11.184153</v>
       </c>
       <c r="AV20" s="1">
-        <v>1256.770000</v>
+        <v>1256.77</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.385000</v>
+        <v>-121.38500000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>40273.991496</v>
+        <v>40273.991496000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.187220</v>
+        <v>11.18722</v>
       </c>
       <c r="BA20" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.075000</v>
+        <v>-139.07499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>40285.379673</v>
+        <v>40285.379673000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.190383</v>
+        <v>11.190383000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.348000</v>
+        <v>-222.34800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>40296.848669</v>
+        <v>40296.848668999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>11.193569</v>
       </c>
       <c r="BK20" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.579000</v>
+        <v>-361.57900000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>40307.756155</v>
+        <v>40307.756155000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.196599</v>
+        <v>11.196599000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1489.420000</v>
+        <v>1489.42</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-588.963000</v>
+        <v>-588.96299999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>40318.300141</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.199528</v>
+        <v>11.199528000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1622.800000</v>
+        <v>1622.8</v>
       </c>
       <c r="BV20" s="1">
-        <v>-846.237000</v>
+        <v>-846.23699999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>40329.203696</v>
+        <v>40329.203695999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.202557</v>
+        <v>11.202557000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1776.000000</v>
+        <v>1776</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1126.740000</v>
+        <v>-1126.74</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>40341.988047</v>
+        <v>40341.988046999999</v>
       </c>
       <c r="CD20" s="1">
         <v>11.206108</v>
       </c>
       <c r="CE20" s="1">
-        <v>2201.700000</v>
+        <v>2201.6999999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1809.420000</v>
+        <v>-1809.42</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>40166.761893</v>
+        <v>40166.761893000003</v>
       </c>
       <c r="B21" s="1">
         <v>11.157434</v>
       </c>
       <c r="C21" s="1">
-        <v>1153.270000</v>
+        <v>1153.27</v>
       </c>
       <c r="D21" s="1">
-        <v>-237.466000</v>
+        <v>-237.46600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>40177.219546</v>
@@ -5379,662 +5795,662 @@
         <v>11.160339</v>
       </c>
       <c r="H21" s="1">
-        <v>1172.930000</v>
+        <v>1172.93</v>
       </c>
       <c r="I21" s="1">
-        <v>-202.025000</v>
+        <v>-202.02500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>40188.067899</v>
+        <v>40188.067899000001</v>
       </c>
       <c r="L21" s="1">
         <v>11.163352</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-144.459000</v>
+        <v>-144.459</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>40198.601116</v>
+        <v>40198.601115999998</v>
       </c>
       <c r="Q21" s="1">
         <v>11.166278</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.340000</v>
+        <v>1208.3399999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-124.976000</v>
+        <v>-124.976</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>40209.394031</v>
+        <v>40209.394031000003</v>
       </c>
       <c r="V21" s="1">
         <v>11.169276</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.840000</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-105.325000</v>
+        <v>-105.325</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>40219.955841</v>
+        <v>40219.955841000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.172210</v>
+        <v>11.17221</v>
       </c>
       <c r="AB21" s="1">
-        <v>1225.780000</v>
+        <v>1225.78</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.940400</v>
+        <v>-89.940399999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>40230.568737</v>
+        <v>40230.568737000001</v>
       </c>
       <c r="AF21" s="1">
         <v>11.175158</v>
       </c>
       <c r="AG21" s="1">
-        <v>1231.110000</v>
+        <v>1231.1099999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.016500</v>
+        <v>-86.016499999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>40241.377059</v>
+        <v>40241.377058999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.178160</v>
+        <v>11.17816</v>
       </c>
       <c r="AL21" s="1">
-        <v>1238.680000</v>
+        <v>1238.68</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.634000</v>
+        <v>-89.634</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>40252.211172</v>
+        <v>40252.211172000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>11.181170</v>
+        <v>11.18117</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1246.710000</v>
+        <v>1246.71</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.795000</v>
+        <v>-101.795</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>40263.316630</v>
+        <v>40263.316630000001</v>
       </c>
       <c r="AU21" s="1">
         <v>11.184255</v>
       </c>
       <c r="AV21" s="1">
-        <v>1256.740000</v>
+        <v>1256.74</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>40274.352087</v>
+        <v>40274.352086999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.187320</v>
+        <v>11.18732</v>
       </c>
       <c r="BA21" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.101000</v>
+        <v>-139.101</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>40285.741720</v>
+        <v>40285.741719999998</v>
       </c>
       <c r="BE21" s="1">
         <v>11.190484</v>
       </c>
       <c r="BF21" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.333000</v>
+        <v>-222.333</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>40297.597625</v>
+        <v>40297.597625000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.193777</v>
+        <v>11.193777000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.573000</v>
+        <v>-361.57299999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>40308.174780</v>
+        <v>40308.174780000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.196715</v>
+        <v>11.196714999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1489.420000</v>
+        <v>1489.42</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-588.947000</v>
+        <v>-588.947</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>40318.717742</v>
+        <v>40318.717742000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.199644</v>
+        <v>11.199643999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1622.880000</v>
+        <v>1622.88</v>
       </c>
       <c r="BV21" s="1">
-        <v>-846.209000</v>
+        <v>-846.20899999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>40329.643615</v>
+        <v>40329.643615000001</v>
       </c>
       <c r="BY21" s="1">
         <v>11.202679</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1776.110000</v>
+        <v>1776.11</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1126.940000</v>
+        <v>-1126.94</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>40342.506861</v>
+        <v>40342.506861000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.206252</v>
+        <v>11.206251999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2200.430000</v>
+        <v>2200.4299999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1807.970000</v>
+        <v>-1807.97</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>40167.107109</v>
+        <v>40167.107108999997</v>
       </c>
       <c r="B22" s="1">
-        <v>11.157530</v>
+        <v>11.15753</v>
       </c>
       <c r="C22" s="1">
-        <v>1153.280000</v>
+        <v>1153.28</v>
       </c>
       <c r="D22" s="1">
-        <v>-237.537000</v>
+        <v>-237.53700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>40177.565255</v>
+        <v>40177.565255000001</v>
       </c>
       <c r="G22" s="1">
         <v>11.160435</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.370000</v>
+        <v>1172.3699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-201.765000</v>
+        <v>-201.76499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>40188.411770</v>
+        <v>40188.411769999999</v>
       </c>
       <c r="L22" s="1">
-        <v>11.163448</v>
+        <v>11.163448000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1199.640000</v>
+        <v>1199.6400000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-144.439000</v>
+        <v>-144.43899999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>40198.951259</v>
+        <v>40198.951259000001</v>
       </c>
       <c r="Q22" s="1">
         <v>11.166375</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.370000</v>
+        <v>1208.3699999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-124.922000</v>
+        <v>-124.922</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>40209.809703</v>
+        <v>40209.809702999999</v>
       </c>
       <c r="V22" s="1">
         <v>11.169392</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.930000</v>
+        <v>1216.93</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.432000</v>
+        <v>-105.432</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>40220.368052</v>
+        <v>40220.368051999998</v>
       </c>
       <c r="AA22" s="1">
         <v>11.172324</v>
       </c>
       <c r="AB22" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.902500</v>
+        <v>-89.902500000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>40230.845008</v>
+        <v>40230.845007999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.175235</v>
+        <v>11.175235000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1231.110000</v>
+        <v>1231.1099999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.970700</v>
+        <v>-85.970699999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>40241.726243</v>
+        <v>40241.726242999997</v>
       </c>
       <c r="AK22" s="1">
         <v>11.178257</v>
       </c>
       <c r="AL22" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.638400</v>
+        <v>-89.638400000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>40252.569284</v>
+        <v>40252.569283999997</v>
       </c>
       <c r="AP22" s="1">
         <v>11.181269</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.813000</v>
+        <v>-101.813</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>40263.681654</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.184356</v>
+        <v>11.184355999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1256.760000</v>
+        <v>1256.76</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>40274.710207</v>
+        <v>40274.710206999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.187420</v>
+        <v>11.187419999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.094000</v>
+        <v>-139.09399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>40286.462407</v>
+        <v>40286.462406999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>11.190684</v>
+        <v>11.190683999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.345000</v>
+        <v>-222.345</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>40297.974889</v>
+        <v>40297.974888999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.193882</v>
       </c>
       <c r="BK22" s="1">
-        <v>1374.610000</v>
+        <v>1374.61</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.530000</v>
+        <v>-361.53</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>40308.573765</v>
+        <v>40308.573765000001</v>
       </c>
       <c r="BO22" s="1">
         <v>11.196826</v>
       </c>
       <c r="BP22" s="1">
-        <v>1489.390000</v>
+        <v>1489.39</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-588.911000</v>
+        <v>-588.91099999999994</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>40319.153724</v>
+        <v>40319.153724000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.199765</v>
+        <v>11.199764999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1622.980000</v>
+        <v>1622.98</v>
       </c>
       <c r="BV22" s="1">
-        <v>-846.357000</v>
+        <v>-846.35699999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>40330.062766</v>
+        <v>40330.062766000003</v>
       </c>
       <c r="BY22" s="1">
         <v>11.202795</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1776.250000</v>
+        <v>1776.25</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1126.840000</v>
+        <v>-1126.8399999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>40343.330751</v>
+        <v>40343.330751000001</v>
       </c>
       <c r="CD22" s="1">
         <v>11.206481</v>
       </c>
       <c r="CE22" s="1">
-        <v>2198.910000</v>
+        <v>2198.91</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1809.360000</v>
+        <v>-1809.36</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>40167.449876</v>
+        <v>40167.449875999999</v>
       </c>
       <c r="B23" s="1">
-        <v>11.157625</v>
+        <v>11.157624999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1153.100000</v>
+        <v>1153.0999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-237.622000</v>
+        <v>-237.62200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>40177.907992</v>
       </c>
       <c r="G23" s="1">
-        <v>11.160530</v>
+        <v>11.16053</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.270000</v>
+        <v>1173.27</v>
       </c>
       <c r="I23" s="1">
-        <v>-201.757000</v>
+        <v>-201.75700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>40188.827912</v>
+        <v>40188.827912000001</v>
       </c>
       <c r="L23" s="1">
         <v>11.163563</v>
       </c>
       <c r="M23" s="1">
-        <v>1199.800000</v>
+        <v>1199.8</v>
       </c>
       <c r="N23" s="1">
-        <v>-144.749000</v>
+        <v>-144.749</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>40199.367899</v>
+        <v>40199.367898999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.166491</v>
+        <v>11.166491000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.380000</v>
+        <v>1208.3800000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-124.880000</v>
+        <v>-124.88</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>40210.099836</v>
+        <v>40210.099836000001</v>
       </c>
       <c r="V23" s="1">
-        <v>11.169472</v>
+        <v>11.169472000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.930000</v>
+        <v>1216.93</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.404000</v>
+        <v>-105.404</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>40220.665135</v>
+        <v>40220.665135000003</v>
       </c>
       <c r="AA23" s="1">
         <v>11.172407</v>
       </c>
       <c r="AB23" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.814000</v>
+        <v>-89.813999999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>40231.188242</v>
+        <v>40231.188241999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.175330</v>
+        <v>11.175330000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.979000</v>
+        <v>-85.978999999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>40242.070994</v>
+        <v>40242.070994000002</v>
       </c>
       <c r="AK23" s="1">
         <v>11.178353</v>
       </c>
       <c r="AL23" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.655400</v>
+        <v>-89.6554</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>40252.930372</v>
+        <v>40252.930372000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.181370</v>
+        <v>11.181369999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1246.730000</v>
+        <v>1246.73</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.781000</v>
+        <v>-101.78100000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>40264.411766</v>
+        <v>40264.411765999997</v>
       </c>
       <c r="AU23" s="1">
         <v>11.184559</v>
       </c>
       <c r="AV23" s="1">
-        <v>1256.790000</v>
+        <v>1256.79</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.379000</v>
+        <v>-121.379</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>40275.427942</v>
+        <v>40275.427942000002</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.187619</v>
       </c>
       <c r="BA23" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.100000</v>
+        <v>-139.1</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>40286.851271</v>
@@ -6043,180 +6459,180 @@
         <v>11.190792</v>
       </c>
       <c r="BF23" s="1">
-        <v>1305.140000</v>
+        <v>1305.1400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.379000</v>
+        <v>-222.37899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>40298.348075</v>
+        <v>40298.348075000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.193986</v>
+        <v>11.193986000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1374.630000</v>
+        <v>1374.63</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.550000</v>
+        <v>-361.55</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>40308.993210</v>
+        <v>40308.993210000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.196943</v>
+        <v>11.196942999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1489.440000</v>
+        <v>1489.44</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-588.932000</v>
+        <v>-588.93200000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>40319.895243</v>
+        <v>40319.895242999999</v>
       </c>
       <c r="BT23" s="1">
         <v>11.199971</v>
       </c>
       <c r="BU23" s="1">
-        <v>1622.780000</v>
+        <v>1622.78</v>
       </c>
       <c r="BV23" s="1">
-        <v>-846.440000</v>
+        <v>-846.44</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>40330.801277</v>
+        <v>40330.801276999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.203000</v>
+        <v>11.202999999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1776.340000</v>
+        <v>1776.34</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1126.850000</v>
+        <v>-1126.8499999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>40343.575741</v>
+        <v>40343.575741000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.206549</v>
+        <v>11.206549000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2201.750000</v>
+        <v>2201.75</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1809.680000</v>
+        <v>-1809.68</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>40167.877398</v>
+        <v>40167.877397999997</v>
       </c>
       <c r="B24" s="1">
-        <v>11.157744</v>
+        <v>11.157743999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1153.360000</v>
+        <v>1153.3599999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-237.564000</v>
+        <v>-237.56399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>40178.340503</v>
+        <v>40178.340502999999</v>
       </c>
       <c r="G24" s="1">
-        <v>11.160650</v>
+        <v>11.16065</v>
       </c>
       <c r="H24" s="1">
-        <v>1172.830000</v>
+        <v>1172.83</v>
       </c>
       <c r="I24" s="1">
-        <v>-202.048000</v>
+        <v>-202.048</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>40189.122568</v>
+        <v>40189.122567999999</v>
       </c>
       <c r="L24" s="1">
-        <v>11.163645</v>
+        <v>11.163645000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1199.650000</v>
+        <v>1199.6500000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-144.863000</v>
+        <v>-144.863</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>40199.655621</v>
+        <v>40199.655620999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.166571</v>
+        <v>11.166570999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-124.868000</v>
+        <v>-124.86799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>40210.443565</v>
+        <v>40210.443565000001</v>
       </c>
       <c r="V24" s="1">
         <v>11.169568</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.900000</v>
+        <v>1216.9000000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-105.318000</v>
+        <v>-105.318</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>40221.070385</v>
+        <v>40221.070384999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.172520</v>
+        <v>11.17252</v>
       </c>
       <c r="AB24" s="1">
-        <v>1225.570000</v>
+        <v>1225.57</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.915400</v>
+        <v>-89.915400000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>40231.532992</v>
@@ -6225,58 +6641,58 @@
         <v>11.175426</v>
       </c>
       <c r="AG24" s="1">
-        <v>1231.110000</v>
+        <v>1231.1099999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.976400</v>
+        <v>-85.976399999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>40242.770818</v>
+        <v>40242.770817999997</v>
       </c>
       <c r="AK24" s="1">
         <v>11.178547</v>
       </c>
       <c r="AL24" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.647000</v>
+        <v>-89.647000000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>40253.649076</v>
+        <v>40253.649076000002</v>
       </c>
       <c r="AP24" s="1">
         <v>11.181569</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1246.740000</v>
+        <v>1246.74</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.772000</v>
+        <v>-101.77200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>40264.799173</v>
+        <v>40264.799172999999</v>
       </c>
       <c r="AU24" s="1">
         <v>11.184666</v>
       </c>
       <c r="AV24" s="1">
-        <v>1256.740000</v>
+        <v>1256.74</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.363000</v>
+        <v>-121.363</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>40276.068282</v>
@@ -6285,363 +6701,363 @@
         <v>11.187797</v>
       </c>
       <c r="BA24" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.111000</v>
+        <v>-139.11099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>40287.214838</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.190893</v>
+        <v>11.190893000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.342000</v>
+        <v>-222.34200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>40299.026603</v>
+        <v>40299.026602999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.194174</v>
       </c>
       <c r="BK24" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.547000</v>
+        <v>-361.54700000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>40309.694548</v>
+        <v>40309.694547999999</v>
       </c>
       <c r="BO24" s="1">
         <v>11.197137</v>
       </c>
       <c r="BP24" s="1">
-        <v>1489.420000</v>
+        <v>1489.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-588.911000</v>
+        <v>-588.91099999999994</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>40320.028694</v>
+        <v>40320.028694000001</v>
       </c>
       <c r="BT24" s="1">
         <v>11.200008</v>
       </c>
       <c r="BU24" s="1">
-        <v>1622.830000</v>
+        <v>1622.83</v>
       </c>
       <c r="BV24" s="1">
-        <v>-846.509000</v>
+        <v>-846.50900000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>40330.967935</v>
+        <v>40330.967935000001</v>
       </c>
       <c r="BY24" s="1">
         <v>11.203047</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1776.260000</v>
+        <v>1776.26</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1126.760000</v>
+        <v>-1126.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>40344.108940</v>
+        <v>40344.108939999998</v>
       </c>
       <c r="CD24" s="1">
         <v>11.206697</v>
       </c>
       <c r="CE24" s="1">
-        <v>2199.110000</v>
+        <v>2199.11</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1808.150000</v>
+        <v>-1808.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>40168.149204</v>
+        <v>40168.149204000001</v>
       </c>
       <c r="B25" s="1">
         <v>11.157819</v>
       </c>
       <c r="C25" s="1">
-        <v>1153.310000</v>
+        <v>1153.31</v>
       </c>
       <c r="D25" s="1">
-        <v>-237.784000</v>
+        <v>-237.78399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>40178.607846</v>
+        <v>40178.607845999999</v>
       </c>
       <c r="G25" s="1">
         <v>11.160724</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.880000</v>
+        <v>1172.8800000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-201.464000</v>
+        <v>-201.464</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>40189.470759</v>
+        <v>40189.470759000003</v>
       </c>
       <c r="L25" s="1">
-        <v>11.163742</v>
+        <v>11.163741999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1199.510000</v>
+        <v>1199.51</v>
       </c>
       <c r="N25" s="1">
-        <v>-144.673000</v>
+        <v>-144.673</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>40200.002778</v>
+        <v>40200.002778000002</v>
       </c>
       <c r="Q25" s="1">
         <v>11.166667</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.390000</v>
+        <v>1208.3900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-124.883000</v>
+        <v>-124.883</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>40210.785307</v>
+        <v>40210.785306999998</v>
       </c>
       <c r="V25" s="1">
         <v>11.169663</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.840000</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.434000</v>
+        <v>-105.434</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>40221.795006</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.172721</v>
+        <v>11.172720999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1225.740000</v>
+        <v>1225.74</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.905400</v>
+        <v>-89.9054</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>40232.218959</v>
+        <v>40232.218958999998</v>
       </c>
       <c r="AF25" s="1">
         <v>11.175616</v>
       </c>
       <c r="AG25" s="1">
-        <v>1231.070000</v>
+        <v>1231.07</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.899800</v>
+        <v>-85.899799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>40243.121489</v>
+        <v>40243.121488999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.178645</v>
+        <v>11.178644999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.640500</v>
+        <v>-89.640500000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>40254.038434</v>
+        <v>40254.038434000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.181677</v>
+        <v>11.181677000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1246.750000</v>
+        <v>1246.75</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.784000</v>
+        <v>-101.78400000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>40265.163699</v>
+        <v>40265.163698999997</v>
       </c>
       <c r="AU25" s="1">
         <v>11.184768</v>
       </c>
       <c r="AV25" s="1">
-        <v>1256.750000</v>
+        <v>1256.75</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.385000</v>
+        <v>-121.38500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>40276.850964</v>
+        <v>40276.850963999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>11.188014</v>
+        <v>11.188014000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.112000</v>
+        <v>-139.11199999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>40287.881461</v>
+        <v>40287.881460999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.191078</v>
+        <v>11.191077999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1305.140000</v>
+        <v>1305.1400000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.325000</v>
+        <v>-222.32499999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>40299.137175</v>
+        <v>40299.137175000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.194205</v>
       </c>
       <c r="BK25" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.555000</v>
+        <v>-361.55500000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>40309.813066</v>
+        <v>40309.813066000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.197170</v>
+        <v>11.19717</v>
       </c>
       <c r="BP25" s="1">
-        <v>1489.440000</v>
+        <v>1489.44</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-588.899000</v>
+        <v>-588.899</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>40320.439539</v>
+        <v>40320.439538999999</v>
       </c>
       <c r="BT25" s="1">
         <v>11.200122</v>
       </c>
       <c r="BU25" s="1">
-        <v>1622.860000</v>
+        <v>1622.86</v>
       </c>
       <c r="BV25" s="1">
-        <v>-846.598000</v>
+        <v>-846.59799999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>40331.393996</v>
+        <v>40331.393995999999</v>
       </c>
       <c r="BY25" s="1">
         <v>11.203165</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1776.130000</v>
+        <v>1776.13</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1126.670000</v>
+        <v>-1126.67</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>40344.647099</v>
+        <v>40344.647099000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.206846</v>
+        <v>11.206846000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2200.090000</v>
+        <v>2200.09</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1810.340000</v>
+        <v>-1810.34</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>40168.491941</v>
       </c>
@@ -6649,88 +7065,88 @@
         <v>11.157914</v>
       </c>
       <c r="C26" s="1">
-        <v>1153.350000</v>
+        <v>1153.3499999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-237.743000</v>
+        <v>-237.74299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>40178.952566</v>
       </c>
       <c r="G26" s="1">
-        <v>11.160820</v>
+        <v>11.160819999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1172.930000</v>
+        <v>1172.93</v>
       </c>
       <c r="I26" s="1">
-        <v>-201.791000</v>
+        <v>-201.791</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>40189.812498</v>
+        <v>40189.812497999999</v>
       </c>
       <c r="L26" s="1">
-        <v>11.163837</v>
+        <v>11.163836999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1200.060000</v>
+        <v>1200.06</v>
       </c>
       <c r="N26" s="1">
-        <v>-144.161000</v>
+        <v>-144.161</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>40200.351995</v>
+        <v>40200.351994999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.166764</v>
+        <v>11.166764000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-124.970000</v>
+        <v>-124.97</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>40211.472764</v>
+        <v>40211.472763999998</v>
       </c>
       <c r="V26" s="1">
-        <v>11.169854</v>
+        <v>11.169854000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.920000</v>
+        <v>1216.92</v>
       </c>
       <c r="X26" s="1">
-        <v>-105.284000</v>
+        <v>-105.28400000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>40222.098060</v>
+        <v>40222.098059999997</v>
       </c>
       <c r="AA26" s="1">
         <v>11.172805</v>
       </c>
       <c r="AB26" s="1">
-        <v>1225.780000</v>
+        <v>1225.78</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.904200</v>
+        <v>-89.904200000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>40232.561166</v>
@@ -6739,103 +7155,103 @@
         <v>11.175711</v>
       </c>
       <c r="AG26" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.956400</v>
+        <v>-85.956400000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>40243.468688</v>
+        <v>40243.468688000001</v>
       </c>
       <c r="AK26" s="1">
         <v>11.178741</v>
       </c>
       <c r="AL26" s="1">
-        <v>1238.680000</v>
+        <v>1238.68</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.648300</v>
+        <v>-89.648300000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>40254.418865</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.181783</v>
+        <v>11.181782999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1246.720000</v>
+        <v>1246.72</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.797000</v>
+        <v>-101.797</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>40265.832835</v>
+        <v>40265.832835000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.184954</v>
+        <v>11.184953999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1256.720000</v>
+        <v>1256.72</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.388000</v>
+        <v>-121.38800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>40277.293363</v>
+        <v>40277.293362999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.188137</v>
+        <v>11.188136999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.100000</v>
+        <v>-139.1</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>40288.330837</v>
+        <v>40288.330837000001</v>
       </c>
       <c r="BE26" s="1">
         <v>11.191203</v>
       </c>
       <c r="BF26" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.362000</v>
+        <v>-222.36199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>40299.505206</v>
+        <v>40299.505206000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.194307</v>
       </c>
       <c r="BK26" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.514000</v>
+        <v>-361.51400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>40310.235191</v>
@@ -6844,60 +7260,61 @@
         <v>11.197288</v>
       </c>
       <c r="BP26" s="1">
-        <v>1489.450000</v>
+        <v>1489.45</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-588.950000</v>
+        <v>-588.95000000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>40320.865419</v>
+        <v>40320.865419000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>11.200240</v>
+        <v>11.200240000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1622.650000</v>
+        <v>1622.65</v>
       </c>
       <c r="BV26" s="1">
-        <v>-846.692000</v>
+        <v>-846.69200000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>40331.837420</v>
+        <v>40331.837420000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.203288</v>
+        <v>11.203288000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1776.100000</v>
+        <v>1776.1</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1126.630000</v>
+        <v>-1126.6300000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>40345.188234</v>
+        <v>40345.188234000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>11.206997</v>
+        <v>11.206996999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2201.760000</v>
+        <v>2201.7600000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1808.970000</v>
+        <v>-1808.97</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>